--- a/biology/Botanique/Himantandraceae/Himantandraceae.xlsx
+++ b/biology/Botanique/Himantandraceae/Himantandraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Himantandracées est constituée de plantes dicotylédones primitives ; elle ne comprend que 2 espèces du genre Galbulimima (ex Himantandra F. Muell. ex Diels).
 Ce sont des arbres à huiles essentielles, à feuilles munies de glandes aromatiques des régions tropicales de l'Est de la Malaisie et de la partie Ouest de l'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Himantandra (dont le nom accepté est Galbulimima) qui vient du grec Χίμας (himas) "sangle" ou "corde" et άνδρες (andres) "homme" en référence à la forme des étamines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Himantandra (dont le nom accepté est Galbulimima) qui vient du grec Χίμας (himas) "sangle" ou "corde" et άνδρες (andres) "homme" en référence à la forme des étamines.
 C'est un exemple de nom de famille dont le nom dérive d'un genre invalidé,.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[2], Angiosperm Phylogeny Website                        (16 mai 2010)[3] et DELTA Angio           (13 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010), Angiosperm Phylogeny Website                        (16 mai 2010) et DELTA Angio           (13 avr. 2010) :
 Galbulimima (en) F.M.Bailey</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Galbulimima
 Galbulimima belgraveana</t>
         </is>
